--- a/Output/growth_model_pvalues.xlsx
+++ b/Output/growth_model_pvalues.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.440724480105709</v>
+        <v>4.201644711116523</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.4865759667284837</v>
+        <v>0.1223557669239378</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2701335576893895</v>
+        <v>1.188678881828963</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.603242194752478</v>
+        <v>0.2755962035200253</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1519363034674279</v>
+        <v>9.639949867284715</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.696691782596923</v>
+        <v>0.001903904328496454</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>10.53389333552207</v>
+        <v>68.51887612258162</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001172050431864407</v>
+        <v>1.256689168062423e-16</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.326664525329808</v>
+        <v>1.925820706312884</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.02564690794295233</v>
+        <v>0.3817801524649954</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.133105260691179</v>
+        <v>0.1004973635524059</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0.5674783782538663</v>
+        <v>0.9509929004886774</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5639848876380692</v>
+        <v>1.368171210698082</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.4526591117775415</v>
+        <v>0.2421263436506696</v>
       </c>
     </row>
     <row r="9">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.96202378497707</v>
+        <v>0.7245633758698899</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.3749315164502869</v>
+        <v>0.6960862611211803</v>
       </c>
     </row>
     <row r="10">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>3.206572425363164</v>
+        <v>0.4186759158548718</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.07334297690544596</v>
+        <v>0.5175984769671761</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>36.72548527267028</v>
+        <v>1.309608293696927</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.359899737205491e-09</v>
+        <v>0.2524655881578196</v>
       </c>
     </row>
     <row r="12">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>3.279119476951018</v>
+        <v>2.624136522029277</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.1940654630423871</v>
+        <v>0.2692625747885531</v>
       </c>
     </row>
     <row r="13">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.257385981117839</v>
+        <v>1.395951436782426</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.5332883586235866</v>
+        <v>0.4975915504087196</v>
       </c>
     </row>
     <row r="14">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>2.356184020018064</v>
+        <v>1.540998714506841</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0.307865583027435</v>
+        <v>0.4627819170954597</v>
       </c>
     </row>
     <row r="15">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>2.896487877613833</v>
+        <v>0.06525893226396455</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.08877277907572559</v>
+        <v>0.7983691633903646</v>
       </c>
     </row>
     <row r="16">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.2888024532683099</v>
+        <v>1.629794860423559</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0.8655404005196972</v>
+        <v>0.4426847311119034</v>
       </c>
     </row>
   </sheetData>
